--- a/biology/Botanique/Maïanthème_à_deux_feuilles/Maïanthème_à_deux_feuilles.xlsx
+++ b/biology/Botanique/Maïanthème_à_deux_feuilles/Maïanthème_à_deux_feuilles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ma%C3%AFanth%C3%A8me_%C3%A0_deux_feuilles</t>
+          <t>Maïanthème_à_deux_feuilles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maianthemum bifolium
-Le Maïanthème à deux feuilles (Maianthemum bifolium), encore appelé Petit muguet, est une plante herbacée vivace de la famille des Liliacées selon la classification classique de Cronquist (1981)[1] ou des Asparagacées d'après les derniers travaux phylogénétiques.
+Le Maïanthème à deux feuilles (Maianthemum bifolium), encore appelé Petit muguet, est une plante herbacée vivace de la famille des Liliacées selon la classification classique de Cronquist (1981) ou des Asparagacées d'après les derniers travaux phylogénétiques.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ma%C3%AFanth%C3%A8me_%C3%A0_deux_feuilles</t>
+          <t>Maïanthème_à_deux_feuilles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthemon en grec signifie fleur, Maius du latin mai et bifolius: à deux feuilles.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ma%C3%AFanth%C3%A8me_%C3%A0_deux_feuilles</t>
+          <t>Maïanthème_à_deux_feuilles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux feuilles à court pétiole, alternes, ovales et cordées à nervures convergentes terminées en pointe. Les fleurs sont blanches, petites en grappe terminale. Les baies sont globuleuses et rouges.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ma%C3%AFanth%C3%A8me_%C3%A0_deux_feuilles</t>
+          <t>Maïanthème_à_deux_feuilles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forêts : hêtraies et chênaies acidiphiles à neutrophiles, aulnaies. Etage collinéen à l'étage subalpin (de 200 à 1 900 m d'altitude)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forêts : hêtraies et chênaies acidiphiles à neutrophiles, aulnaies. Etage collinéen à l'étage subalpin (de 200 à 1 900 m d'altitude).
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ma%C3%AFanth%C3%A8me_%C3%A0_deux_feuilles</t>
+          <t>Maïanthème_à_deux_feuilles</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Nord-eurasiatique. En France dans le nord, l'est, le centre. Absent dans l'ouest et en région méditerranéenne.
 </t>
